--- a/data/trans_dic/P36$cafe-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36$cafe-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93,3; 96,6</t>
+          <t>93,37; 96,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91,53; 95,53</t>
+          <t>91,82; 95,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,34; 91,22</t>
+          <t>86,39; 91,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>92,4; 95,82</t>
+          <t>92,54; 95,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,23; 96,62</t>
+          <t>93,11; 96,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,4; 96,77</t>
+          <t>93,29; 96,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,58; 95,84</t>
+          <t>93,48; 95,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>93,16; 95,7</t>
+          <t>92,9; 95,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>90,43; 93,51</t>
+          <t>90,45; 93,56</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,87; 95,04</t>
+          <t>91,84; 95,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,82; 94,24</t>
+          <t>90,74; 94,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>87,16; 91,22</t>
+          <t>87,09; 91,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>90,43; 94,12</t>
+          <t>90,64; 94,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,56; 95,72</t>
+          <t>92,6; 95,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,8; 93,18</t>
+          <t>89,6; 93,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,67; 94,04</t>
+          <t>91,74; 94,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>92,22; 94,5</t>
+          <t>92,08; 94,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>89,0; 91,66</t>
+          <t>89,22; 91,75</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,91; 91,58</t>
+          <t>86,77; 91,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,69; 90,4</t>
+          <t>85,41; 90,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,62; 93,73</t>
+          <t>89,5; 93,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>88,56; 92,9</t>
+          <t>88,94; 93,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>89,24; 93,36</t>
+          <t>89,15; 93,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,51; 95,84</t>
+          <t>92,55; 95,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,51; 91,84</t>
+          <t>88,59; 91,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>88,26; 91,39</t>
+          <t>88,09; 91,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,55; 94,23</t>
+          <t>91,8; 94,42</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>86,12; 90,2</t>
+          <t>86,09; 90,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,91; 92,85</t>
+          <t>89,22; 93,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91,02; 94,44</t>
+          <t>91,15; 94,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>87,16; 91,11</t>
+          <t>87,2; 91,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,06; 95,03</t>
+          <t>92,06; 95,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,48; 95,45</t>
+          <t>92,4; 95,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,2; 90,11</t>
+          <t>87,34; 90,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>91,18; 93,55</t>
+          <t>91,24; 93,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92,33; 94,61</t>
+          <t>92,52; 94,7</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90,49; 92,46</t>
+          <t>90,48; 92,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>90,41; 92,44</t>
+          <t>90,44; 92,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,73; 91,74</t>
+          <t>89,7; 91,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>90,57; 92,49</t>
+          <t>90,66; 92,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>92,69; 94,42</t>
+          <t>92,69; 94,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>92,65; 94,37</t>
+          <t>92,74; 94,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>90,89; 92,19</t>
+          <t>90,89; 92,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>91,89; 93,17</t>
+          <t>91,92; 93,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>91,64; 92,88</t>
+          <t>91,51; 92,85</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, café, leche, té, chololate, yogurt,...</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1304</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1247</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>659545</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>658365</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>598087</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>649067</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>661422</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>639348</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1308612</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1319787</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1237436</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>647102; 668901</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>644113; 669076</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>581437; 615281</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>637002; 660119</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>648157; 671962</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>626599; 648073</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1291313; 1322965</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1298322; 1334811</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1216253; 1258039</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>833</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1671</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1753</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1739</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>896636</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>942504</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>911947</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>894569</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>970331</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>953988</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1791204</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1912836</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1865934</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>880656; 911031</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>923645; 959808</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>889497; 930492</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>876867; 909543</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>953894; 984959</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>933602; 970692</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1767103; 1811441</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1885861; 1932788</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1840910; 1893102</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1251</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1330</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>605487</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>666441</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>696998</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>623032</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>709822</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>739750</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1228521</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1376264</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1436747</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>587845; 621383</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>645367; 683171</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>678828; 711151</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>608220; 636368</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>691934; 725593</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>726539; 752095</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1205971; 1252153</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1349263; 1398718</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1416944; 1457344</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1765</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1764</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1768</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>829987</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>862615</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>871443</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>924277</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>983136</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>981417</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1754265</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1845751</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1852859</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>809633; 848879</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>843872; 880106</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>854575; 886481</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>903036; 942375</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>966435; 998832</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>963457; 994754</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1725828; 1779789</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1820812; 1868714</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1832161; 1875193</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2935</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2934</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2935</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3013</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3081</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3113</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5948</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6015</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6048</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2991657</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3129926</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3078474</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3090946</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3324712</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3314502</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6082602</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6454638</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>6392976</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2958647; 3022335</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3093794; 3160962</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3041234; 3112948</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3060053; 3122923</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3292647; 3353261</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3284294; 3342354</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6039320; 6124212</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6409528; 6498596</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6343469; 6435749</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>